--- a/EXCEL/2. Formula Excel Template.xlsx
+++ b/EXCEL/2. Formula Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irvin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irvin\OneDrive\Desktop\ARAL SERIES\DATA ANALYTICS\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA0DEA4-4ABC-4212-8620-FD0C53BC96C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD02E443-8ED6-454B-AA14-C08DB5A88C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="98">
   <si>
     <t>FirstName</t>
   </si>
@@ -360,12 +360,6 @@
   </si>
   <si>
     <t>=SUMIFS(G2:G10,E2:E10,''Female'',D2:D10,''&gt;30")</t>
-  </si>
-  <si>
-    <t>=COUNTIF(G2:G10,''&gt;45000'')</t>
-  </si>
-  <si>
-    <t>=COUNTIFS(A2:A10,''&gt;1005'',E2:E10, ''Male'')</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,11 +1184,13 @@
         <f>COUNT(G2:G10)</f>
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>99</v>
+      <c r="K2" s="4">
+        <f>COUNTIF(G2:G10,"&gt;45000")</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="4">
+        <f>COUNTIFS(A2:A10,"&gt;1005",E2:E10, "Male")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1225,6 +1221,8 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1254,6 +1252,8 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1283,6 +1283,8 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1312,6 +1314,8 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1341,6 +1345,8 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1370,6 +1376,8 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1399,6 +1407,8 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1428,6 +1438,8 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1441,8 +1453,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
